--- a/data/pca/factorExposure/factorExposure_2009-09-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01758380848601485</v>
+        <v>0.01661224241281097</v>
       </c>
       <c r="C2">
-        <v>-0.001712431405582405</v>
+        <v>-0.0008357891106195733</v>
       </c>
       <c r="D2">
-        <v>0.000870467741121097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009402842361878341</v>
+      </c>
+      <c r="E2">
+        <v>0.001777491845146013</v>
+      </c>
+      <c r="F2">
+        <v>0.01165459665932319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09781348157697617</v>
+        <v>0.09388193566264176</v>
       </c>
       <c r="C4">
-        <v>-0.02122683869128832</v>
+        <v>-0.01450248456002372</v>
       </c>
       <c r="D4">
-        <v>-0.06761753886667211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08399343680371059</v>
+      </c>
+      <c r="E4">
+        <v>0.02861132807376169</v>
+      </c>
+      <c r="F4">
+        <v>-0.03096583224760313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1472571627928966</v>
+        <v>0.1592023821321211</v>
       </c>
       <c r="C6">
-        <v>-0.02645096624222428</v>
+        <v>-0.02663529599285402</v>
       </c>
       <c r="D6">
-        <v>0.02257759885752244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0232004370550279</v>
+      </c>
+      <c r="E6">
+        <v>0.01109480023357909</v>
+      </c>
+      <c r="F6">
+        <v>-0.04433786211557535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06552279839436004</v>
+        <v>0.0636289881215503</v>
       </c>
       <c r="C7">
-        <v>-0.003534771783835085</v>
+        <v>0.001618917508947197</v>
       </c>
       <c r="D7">
-        <v>-0.03859849184978217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05251263715180735</v>
+      </c>
+      <c r="E7">
+        <v>0.01219068374094984</v>
+      </c>
+      <c r="F7">
+        <v>-0.04696242595182643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06584266389465453</v>
+        <v>0.05760052842334527</v>
       </c>
       <c r="C8">
-        <v>0.009846243131651748</v>
+        <v>0.01325354044165913</v>
       </c>
       <c r="D8">
-        <v>-0.01606544439203368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03234439387068364</v>
+      </c>
+      <c r="E8">
+        <v>0.01783505611556121</v>
+      </c>
+      <c r="F8">
+        <v>0.02711924589119689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07589755472071547</v>
+        <v>0.07082237296002564</v>
       </c>
       <c r="C9">
-        <v>-0.01779613939756914</v>
+        <v>-0.01024322058589806</v>
       </c>
       <c r="D9">
-        <v>-0.06866692668806938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08687294332071049</v>
+      </c>
+      <c r="E9">
+        <v>0.02332152286443532</v>
+      </c>
+      <c r="F9">
+        <v>-0.04621744039319396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08122180380278063</v>
+        <v>0.09137356920603978</v>
       </c>
       <c r="C10">
-        <v>-0.009517741117022053</v>
+        <v>-0.02094548221586187</v>
       </c>
       <c r="D10">
-        <v>0.1677583016025485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1642099938468848</v>
+      </c>
+      <c r="E10">
+        <v>-0.03289154814088152</v>
+      </c>
+      <c r="F10">
+        <v>0.05496085984706094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09501659658924008</v>
+        <v>0.08815587432870717</v>
       </c>
       <c r="C11">
-        <v>-0.01847545453729726</v>
+        <v>-0.01035842197396845</v>
       </c>
       <c r="D11">
-        <v>-0.09904814492596271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1170966716396548</v>
+      </c>
+      <c r="E11">
+        <v>0.04570205897636882</v>
+      </c>
+      <c r="F11">
+        <v>-0.02230914559716089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1010421899798</v>
+        <v>0.09201718882346499</v>
       </c>
       <c r="C12">
-        <v>-0.01684488440463453</v>
+        <v>-0.007730186862002668</v>
       </c>
       <c r="D12">
-        <v>-0.09890019697058078</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1316890550514516</v>
+      </c>
+      <c r="E12">
+        <v>0.04570993598273997</v>
+      </c>
+      <c r="F12">
+        <v>-0.02890596093125877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04218669735084839</v>
+        <v>0.04136018461563658</v>
       </c>
       <c r="C13">
-        <v>-0.006342851781945443</v>
+        <v>-0.002374943762528105</v>
       </c>
       <c r="D13">
-        <v>-0.03142103441728954</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05314560884901972</v>
+      </c>
+      <c r="E13">
+        <v>-0.00449217886612142</v>
+      </c>
+      <c r="F13">
+        <v>-0.001779337556854789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02162099161498112</v>
+        <v>0.02397909469579775</v>
       </c>
       <c r="C14">
-        <v>-0.01533090485885297</v>
+        <v>-0.01379253903466323</v>
       </c>
       <c r="D14">
-        <v>-0.02392940099822635</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03316551737979495</v>
+      </c>
+      <c r="E14">
+        <v>0.01845322566551162</v>
+      </c>
+      <c r="F14">
+        <v>-0.01405743318143049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03597902766127629</v>
+        <v>0.03285952415415636</v>
       </c>
       <c r="C15">
-        <v>-0.008126669001269264</v>
+        <v>-0.004632019820469788</v>
       </c>
       <c r="D15">
-        <v>-0.02617939849326793</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04525910450962835</v>
+      </c>
+      <c r="E15">
+        <v>0.006134604393405928</v>
+      </c>
+      <c r="F15">
+        <v>-0.02505460286180696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08112940921111603</v>
+        <v>0.0742563438379412</v>
       </c>
       <c r="C16">
-        <v>-0.009462675314858397</v>
+        <v>-0.0009047697738342419</v>
       </c>
       <c r="D16">
-        <v>-0.1027503937800381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1275917522920782</v>
+      </c>
+      <c r="E16">
+        <v>0.06000968129717031</v>
+      </c>
+      <c r="F16">
+        <v>-0.02616681986296644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006930170528026546</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001724325496797446</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00126886312086415</v>
+      </c>
+      <c r="E17">
+        <v>0.0007372382705755882</v>
+      </c>
+      <c r="F17">
+        <v>0.001154283346582619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.01232997068688908</v>
+        <v>0.03630001048693763</v>
       </c>
       <c r="C18">
-        <v>0.001531066707507031</v>
+        <v>0.002971971424160863</v>
       </c>
       <c r="D18">
-        <v>-0.01569946308335192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01627446234108815</v>
+      </c>
+      <c r="E18">
+        <v>-0.008355815526998715</v>
+      </c>
+      <c r="F18">
+        <v>0.009572455529033703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06517384768840236</v>
+        <v>0.06176121536718208</v>
       </c>
       <c r="C20">
-        <v>-0.007319904830483853</v>
+        <v>1.20155100866044e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04924580696809117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07784221050799096</v>
+      </c>
+      <c r="E20">
+        <v>0.05586871013038384</v>
+      </c>
+      <c r="F20">
+        <v>-0.02562817652614454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04486011884338812</v>
+        <v>0.04082715265553905</v>
       </c>
       <c r="C21">
-        <v>-0.01042333801069985</v>
+        <v>-0.006422728604757884</v>
       </c>
       <c r="D21">
-        <v>-0.01742418397241876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03802606157453581</v>
+      </c>
+      <c r="E21">
+        <v>-0.001705171628289565</v>
+      </c>
+      <c r="F21">
+        <v>0.02488033947047215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0416103097724379</v>
+        <v>0.04342449766898381</v>
       </c>
       <c r="C22">
-        <v>-0.0003613014628828873</v>
+        <v>-0.0002939011819504959</v>
       </c>
       <c r="D22">
-        <v>0.008755631101981695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004405660604120882</v>
+      </c>
+      <c r="E22">
+        <v>0.0369901007916671</v>
+      </c>
+      <c r="F22">
+        <v>0.03929842533304643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04157268805992075</v>
+        <v>0.04340021954514672</v>
       </c>
       <c r="C23">
-        <v>-0.0003520422541247434</v>
+        <v>-0.0002853838766051712</v>
       </c>
       <c r="D23">
-        <v>0.008727540212453144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004421300949759159</v>
+      </c>
+      <c r="E23">
+        <v>0.0371733169739262</v>
+      </c>
+      <c r="F23">
+        <v>0.03926193832770078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08653912880144531</v>
+        <v>0.08002599021665657</v>
       </c>
       <c r="C24">
-        <v>-0.009927831571261533</v>
+        <v>-0.00159017037458223</v>
       </c>
       <c r="D24">
-        <v>-0.1063524809171066</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206588119977251</v>
+      </c>
+      <c r="E24">
+        <v>0.04843284823255176</v>
+      </c>
+      <c r="F24">
+        <v>-0.02758169489110191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09177615349098875</v>
+        <v>0.08509238883697057</v>
       </c>
       <c r="C25">
-        <v>-0.01215226281527591</v>
+        <v>-0.004258654820825299</v>
       </c>
       <c r="D25">
-        <v>-0.09208133415007945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1095014225000043</v>
+      </c>
+      <c r="E25">
+        <v>0.03180995620761431</v>
+      </c>
+      <c r="F25">
+        <v>-0.02678694753374995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05855250029834157</v>
+        <v>0.0589702060281576</v>
       </c>
       <c r="C26">
-        <v>-0.01835901775163903</v>
+        <v>-0.01440808913011477</v>
       </c>
       <c r="D26">
-        <v>-0.01602743110976499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04104916315093975</v>
+      </c>
+      <c r="E26">
+        <v>0.02816397215553084</v>
+      </c>
+      <c r="F26">
+        <v>0.0079255076858423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1306956600925639</v>
+        <v>0.1423374595446318</v>
       </c>
       <c r="C28">
-        <v>-0.006751785125328572</v>
+        <v>-0.02239663677345476</v>
       </c>
       <c r="D28">
-        <v>0.2805262335890929</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2618058138969104</v>
+      </c>
+      <c r="E28">
+        <v>-0.06770084296592982</v>
+      </c>
+      <c r="F28">
+        <v>-0.006615627923384646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02689815724501806</v>
+        <v>0.02864192533369182</v>
       </c>
       <c r="C29">
-        <v>-0.009999881687596791</v>
+        <v>-0.008693066521095832</v>
       </c>
       <c r="D29">
-        <v>-0.02048846642233388</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03133014197054033</v>
+      </c>
+      <c r="E29">
+        <v>0.01351378933821541</v>
+      </c>
+      <c r="F29">
+        <v>0.01290961608718365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06954846812692436</v>
+        <v>0.05882804697942602</v>
       </c>
       <c r="C30">
-        <v>-0.0101274592507831</v>
+        <v>-0.002506093966234953</v>
       </c>
       <c r="D30">
-        <v>-0.07466033725165286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08952881210312499</v>
+      </c>
+      <c r="E30">
+        <v>0.0155562647267001</v>
+      </c>
+      <c r="F30">
+        <v>-0.07776836534492165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05165968277813985</v>
+        <v>0.05109968197402458</v>
       </c>
       <c r="C31">
-        <v>-0.01693578689064655</v>
+        <v>-0.01551110939872404</v>
       </c>
       <c r="D31">
-        <v>-0.02130512843274076</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0247372972626775</v>
+      </c>
+      <c r="E31">
+        <v>0.0286537935738763</v>
+      </c>
+      <c r="F31">
+        <v>0.001503909244788376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04736684136681071</v>
+        <v>0.05124400853623338</v>
       </c>
       <c r="C32">
-        <v>-0.001914048564737523</v>
+        <v>0.001876213085049734</v>
       </c>
       <c r="D32">
-        <v>-0.02223514498029215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03644916200603174</v>
+      </c>
+      <c r="E32">
+        <v>0.03440301150435631</v>
+      </c>
+      <c r="F32">
+        <v>-0.00299028844043366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.0937841276490613</v>
+        <v>0.08851000099258921</v>
       </c>
       <c r="C33">
-        <v>-0.01452464615318738</v>
+        <v>-0.006562547683986912</v>
       </c>
       <c r="D33">
-        <v>-0.0804033771767554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1022066141684151</v>
+      </c>
+      <c r="E33">
+        <v>0.0435545042744208</v>
+      </c>
+      <c r="F33">
+        <v>-0.03992665742439662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07420496994158246</v>
+        <v>0.06783778602071827</v>
       </c>
       <c r="C34">
-        <v>-0.01667495003481897</v>
+        <v>-0.01000595048225334</v>
       </c>
       <c r="D34">
-        <v>-0.08646714959403051</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1097364457257146</v>
+      </c>
+      <c r="E34">
+        <v>0.03398675430196665</v>
+      </c>
+      <c r="F34">
+        <v>-0.03278947203869021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02439213506577963</v>
+        <v>0.02540757788128984</v>
       </c>
       <c r="C35">
-        <v>-0.002596367707111912</v>
+        <v>-0.002559974918493972</v>
       </c>
       <c r="D35">
-        <v>-0.00555921249628244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01167646262325219</v>
+      </c>
+      <c r="E35">
+        <v>0.01203209432428105</v>
+      </c>
+      <c r="F35">
+        <v>-0.00146951395818579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02571824515261754</v>
+        <v>0.02758111503265611</v>
       </c>
       <c r="C36">
-        <v>-0.009024464464167463</v>
+        <v>-0.006811181497713467</v>
       </c>
       <c r="D36">
-        <v>-0.03220642332841497</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04000465680120314</v>
+      </c>
+      <c r="E36">
+        <v>0.01669502906990178</v>
+      </c>
+      <c r="F36">
+        <v>-0.01560362369436556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004603676563506276</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006214724905721404</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002167318584425324</v>
+      </c>
+      <c r="E37">
+        <v>-0.001335629701281419</v>
+      </c>
+      <c r="F37">
+        <v>0.0007953709857415997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.000390186485625784</v>
+        <v>0.0003754948903009849</v>
       </c>
       <c r="C38">
-        <v>-0.0001163527003941925</v>
+        <v>-0.0001268414150762168</v>
       </c>
       <c r="D38">
-        <v>0.0009714464512525039</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0007103502997143782</v>
+      </c>
+      <c r="E38">
+        <v>-0.0004185335796895006</v>
+      </c>
+      <c r="F38">
+        <v>-0.0004726067734658844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1197218601568853</v>
+        <v>0.1041677332505376</v>
       </c>
       <c r="C39">
-        <v>-0.02566451394289321</v>
+        <v>-0.01549664182753351</v>
       </c>
       <c r="D39">
-        <v>-0.1424679893223392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.15434129795332</v>
+      </c>
+      <c r="E39">
+        <v>0.05893816295563905</v>
+      </c>
+      <c r="F39">
+        <v>-0.0291123202786692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03729824873311183</v>
+        <v>0.04114688081274918</v>
       </c>
       <c r="C40">
-        <v>-0.01013985100001409</v>
+        <v>-0.007049947538429594</v>
       </c>
       <c r="D40">
-        <v>-0.005728037789942509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03087946423103409</v>
+      </c>
+      <c r="E40">
+        <v>0.00149163855433257</v>
+      </c>
+      <c r="F40">
+        <v>0.01671496408752485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02482542327729204</v>
+        <v>0.0277395256118099</v>
       </c>
       <c r="C41">
-        <v>-0.007505207215360151</v>
+        <v>-0.006807631780147052</v>
       </c>
       <c r="D41">
-        <v>-0.008703318241556759</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01112900097507062</v>
+      </c>
+      <c r="E41">
+        <v>0.01241450755880463</v>
+      </c>
+      <c r="F41">
+        <v>0.006164258277163984</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04244486965973652</v>
+        <v>0.04063203518608184</v>
       </c>
       <c r="C43">
-        <v>-0.008522360065306735</v>
+        <v>-0.00704814242942544</v>
       </c>
       <c r="D43">
-        <v>-0.01158584253361839</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01877281181100696</v>
+      </c>
+      <c r="E43">
+        <v>0.02517590689529198</v>
+      </c>
+      <c r="F43">
+        <v>0.01204774486851828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.08241731714251918</v>
+        <v>0.07954060246731957</v>
       </c>
       <c r="C44">
-        <v>-0.02774907044475377</v>
+        <v>-0.01922654106905028</v>
       </c>
       <c r="D44">
-        <v>-0.0775404887007248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09813135804586096</v>
+      </c>
+      <c r="E44">
+        <v>0.06152036453889979</v>
+      </c>
+      <c r="F44">
+        <v>-0.1572992119257599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02005430391947658</v>
+        <v>0.02307631759320846</v>
       </c>
       <c r="C46">
-        <v>-0.004006338272226578</v>
+        <v>-0.003217431514747114</v>
       </c>
       <c r="D46">
-        <v>-0.003808246812986689</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01351339631742656</v>
+      </c>
+      <c r="E46">
+        <v>0.02591952951021764</v>
+      </c>
+      <c r="F46">
+        <v>0.006016519602978373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05356727038069328</v>
+        <v>0.05275716292674906</v>
       </c>
       <c r="C47">
-        <v>-0.00463239492970055</v>
+        <v>-0.003623805618279194</v>
       </c>
       <c r="D47">
-        <v>-0.003617165439025791</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01241071406611201</v>
+      </c>
+      <c r="E47">
+        <v>0.02397122390658717</v>
+      </c>
+      <c r="F47">
+        <v>0.03197938374702279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04943201017851148</v>
+        <v>0.05043268175740417</v>
       </c>
       <c r="C48">
-        <v>-0.006114846796866993</v>
+        <v>-0.002194999605489744</v>
       </c>
       <c r="D48">
-        <v>-0.03529608741210324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05069114531768682</v>
+      </c>
+      <c r="E48">
+        <v>-0.004673330802891419</v>
+      </c>
+      <c r="F48">
+        <v>-0.009879434326323995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2014939267889427</v>
+        <v>0.1999136021534658</v>
       </c>
       <c r="C49">
-        <v>-0.01872711667877488</v>
+        <v>-0.01889180258946658</v>
       </c>
       <c r="D49">
-        <v>0.008201425949922301</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.006821020280998163</v>
+      </c>
+      <c r="E49">
+        <v>0.03063550422748147</v>
+      </c>
+      <c r="F49">
+        <v>-0.03833596474134501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.05092861964552316</v>
+        <v>0.05143820954000217</v>
       </c>
       <c r="C50">
-        <v>-0.01300736872221522</v>
+        <v>-0.01122268710104314</v>
       </c>
       <c r="D50">
-        <v>-0.02232006435311621</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02430579402863342</v>
+      </c>
+      <c r="E50">
+        <v>0.03016965044755573</v>
+      </c>
+      <c r="F50">
+        <v>-0.00963543044826639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1554093427310135</v>
+        <v>0.1488117133879542</v>
       </c>
       <c r="C52">
-        <v>-0.01889965369306665</v>
+        <v>-0.01733466317805208</v>
       </c>
       <c r="D52">
-        <v>-0.05281514131319277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04210147221668065</v>
+      </c>
+      <c r="E52">
+        <v>0.02100701409287109</v>
+      </c>
+      <c r="F52">
+        <v>-0.04350152621203052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1725282387421671</v>
+        <v>0.1711964606853479</v>
       </c>
       <c r="C53">
-        <v>-0.01759690157576074</v>
+        <v>-0.01979882208604838</v>
       </c>
       <c r="D53">
-        <v>-0.02958951575566488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004840548532673248</v>
+      </c>
+      <c r="E53">
+        <v>0.02926908395605337</v>
+      </c>
+      <c r="F53">
+        <v>-0.07520434892477774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02011881941746369</v>
+        <v>0.02046757880856415</v>
       </c>
       <c r="C54">
-        <v>-0.01266657668275935</v>
+        <v>-0.01119791457509485</v>
       </c>
       <c r="D54">
-        <v>-0.02750009287935822</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03466261665890366</v>
+      </c>
+      <c r="E54">
+        <v>0.02201481775593414</v>
+      </c>
+      <c r="F54">
+        <v>0.00533434621095224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1155619001704394</v>
+        <v>0.1147678928969986</v>
       </c>
       <c r="C55">
-        <v>-0.01627756104046964</v>
+        <v>-0.01748835512357267</v>
       </c>
       <c r="D55">
-        <v>-0.02249735069073562</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007428677712847093</v>
+      </c>
+      <c r="E55">
+        <v>0.02418506678252618</v>
+      </c>
+      <c r="F55">
+        <v>-0.04771495413154962</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1789638090650081</v>
+        <v>0.1768388185239183</v>
       </c>
       <c r="C56">
-        <v>-0.01570436946778058</v>
+        <v>-0.01762261606448565</v>
       </c>
       <c r="D56">
-        <v>-0.01658589182174144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00217067419783456</v>
+      </c>
+      <c r="E56">
+        <v>0.03386472370975276</v>
+      </c>
+      <c r="F56">
+        <v>-0.05303394359938168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04723823177991304</v>
+        <v>0.04504513449546579</v>
       </c>
       <c r="C58">
-        <v>-0.006617480256708469</v>
+        <v>0.0004011173863355122</v>
       </c>
       <c r="D58">
-        <v>-0.05172765930826406</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07081530443637629</v>
+      </c>
+      <c r="E58">
+        <v>0.031732244080483</v>
+      </c>
+      <c r="F58">
+        <v>0.03906682375449099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1604192388063651</v>
+        <v>0.1678675293945471</v>
       </c>
       <c r="C59">
-        <v>-0.008289124128660574</v>
+        <v>-0.02254700572995043</v>
       </c>
       <c r="D59">
-        <v>0.2271221741645501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2170906492037569</v>
+      </c>
+      <c r="E59">
+        <v>-0.04563245729444576</v>
+      </c>
+      <c r="F59">
+        <v>0.03634485905463422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2382842920392869</v>
+        <v>0.2317556029744905</v>
       </c>
       <c r="C60">
-        <v>0.0006490825851863481</v>
+        <v>0.002204485512322192</v>
       </c>
       <c r="D60">
-        <v>-0.05737529957524465</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04093574356956275</v>
+      </c>
+      <c r="E60">
+        <v>0.008765215693478802</v>
+      </c>
+      <c r="F60">
+        <v>0.004981285446904171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09076516357401521</v>
+        <v>0.08008157528821534</v>
       </c>
       <c r="C61">
-        <v>-0.01906980535999362</v>
+        <v>-0.01111222145976931</v>
       </c>
       <c r="D61">
-        <v>-0.09729893800935432</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.11761431435902</v>
+      </c>
+      <c r="E61">
+        <v>0.03876387616985857</v>
+      </c>
+      <c r="F61">
+        <v>-0.01270180187362879</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1714953484841267</v>
+        <v>0.1695657050713954</v>
       </c>
       <c r="C62">
-        <v>-0.01969697302213607</v>
+        <v>-0.02069168229819325</v>
       </c>
       <c r="D62">
-        <v>-0.01067910374064911</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005097357519898565</v>
+      </c>
+      <c r="E62">
+        <v>0.03361902853472162</v>
+      </c>
+      <c r="F62">
+        <v>-0.03623301714770209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04510111346385861</v>
+        <v>0.04552824501884732</v>
       </c>
       <c r="C63">
-        <v>-0.006415058816718502</v>
+        <v>-0.001622971728274921</v>
       </c>
       <c r="D63">
-        <v>-0.04242998835644324</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05906975634533432</v>
+      </c>
+      <c r="E63">
+        <v>0.02309137860217842</v>
+      </c>
+      <c r="F63">
+        <v>-0.002751015298771179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.111134399624185</v>
+        <v>0.1107892214166464</v>
       </c>
       <c r="C64">
-        <v>-0.01504342629235439</v>
+        <v>-0.01145157989825434</v>
       </c>
       <c r="D64">
-        <v>-0.02737636179038869</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04396876343359615</v>
+      </c>
+      <c r="E64">
+        <v>0.02286995589493852</v>
+      </c>
+      <c r="F64">
+        <v>-0.0258836103413651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1383514466573502</v>
+        <v>0.1507275352269904</v>
       </c>
       <c r="C65">
-        <v>-0.03176301197565538</v>
+        <v>-0.03410500242317418</v>
       </c>
       <c r="D65">
-        <v>0.04693380739590007</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0436726665966242</v>
+      </c>
+      <c r="E65">
+        <v>0.006732834020185514</v>
+      </c>
+      <c r="F65">
+        <v>-0.03810485050122375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1443634134322047</v>
+        <v>0.1238209726468277</v>
       </c>
       <c r="C66">
-        <v>-0.02312648719227822</v>
+        <v>-0.01344198271368123</v>
       </c>
       <c r="D66">
-        <v>-0.1206124168147519</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1425982033523124</v>
+      </c>
+      <c r="E66">
+        <v>0.0649823794020901</v>
+      </c>
+      <c r="F66">
+        <v>-0.0333780652449563</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06429485241373457</v>
+        <v>0.05764661708837467</v>
       </c>
       <c r="C67">
-        <v>-0.005925644133137911</v>
+        <v>-0.002873834593858857</v>
       </c>
       <c r="D67">
-        <v>-0.0542328734794164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0550525366134885</v>
+      </c>
+      <c r="E67">
+        <v>0.01628736714784267</v>
+      </c>
+      <c r="F67">
+        <v>0.03135097183596374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1026640976473877</v>
+        <v>0.1165645602029604</v>
       </c>
       <c r="C68">
-        <v>-0.01688210916201297</v>
+        <v>-0.03313371260303629</v>
       </c>
       <c r="D68">
-        <v>0.2782664095299833</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2614592374714393</v>
+      </c>
+      <c r="E68">
+        <v>-0.08742314329242723</v>
+      </c>
+      <c r="F68">
+        <v>-0.002387369525039057</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04106480176197887</v>
+        <v>0.03913024778443477</v>
       </c>
       <c r="C69">
-        <v>-0.001257363385466779</v>
+        <v>-0.001190979071064696</v>
       </c>
       <c r="D69">
-        <v>-0.009529230554397094</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008659675316714148</v>
+      </c>
+      <c r="E69">
+        <v>0.02437367786930546</v>
+      </c>
+      <c r="F69">
+        <v>-0.0003545614026939805</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06480310075607464</v>
+        <v>0.06642284125320494</v>
       </c>
       <c r="C70">
-        <v>0.02333153800711426</v>
+        <v>0.02751969078195223</v>
       </c>
       <c r="D70">
-        <v>0.02644516325699233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02508207235812187</v>
+      </c>
+      <c r="E70">
+        <v>-0.03211561914686536</v>
+      </c>
+      <c r="F70">
+        <v>0.1856804017047597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1195182086846389</v>
+        <v>0.1362773779899503</v>
       </c>
       <c r="C71">
-        <v>-0.02062036690765808</v>
+        <v>-0.03744092240369942</v>
       </c>
       <c r="D71">
-        <v>0.2967631844332766</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2726170602706484</v>
+      </c>
+      <c r="E71">
+        <v>-0.09766700002219532</v>
+      </c>
+      <c r="F71">
+        <v>-0.007870974961795583</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1377376146085233</v>
+        <v>0.1424944048115458</v>
       </c>
       <c r="C72">
-        <v>-0.02673321363653604</v>
+        <v>-0.02718884247677435</v>
       </c>
       <c r="D72">
-        <v>-0.0005058451323242866</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003205279397377809</v>
+      </c>
+      <c r="E72">
+        <v>0.03720312698729785</v>
+      </c>
+      <c r="F72">
+        <v>-0.03244204189820701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2061252763114778</v>
+        <v>0.2041228358283366</v>
       </c>
       <c r="C73">
-        <v>-0.01443889398587721</v>
+        <v>-0.01298352385890703</v>
       </c>
       <c r="D73">
-        <v>-0.02729979260754897</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0171592847675271</v>
+      </c>
+      <c r="E73">
+        <v>0.06302085046021332</v>
+      </c>
+      <c r="F73">
+        <v>-0.03844657672044864</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09226949141837761</v>
+        <v>0.09476850338086851</v>
       </c>
       <c r="C74">
-        <v>-0.01258320031915638</v>
+        <v>-0.01338708439768414</v>
       </c>
       <c r="D74">
-        <v>-0.03216549211034996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01655196123439327</v>
+      </c>
+      <c r="E74">
+        <v>0.04394413165295596</v>
+      </c>
+      <c r="F74">
+        <v>-0.05836302275290847</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1343757467449162</v>
+        <v>0.1274110501738053</v>
       </c>
       <c r="C75">
-        <v>-0.02881803837262453</v>
+        <v>-0.0283158178237467</v>
       </c>
       <c r="D75">
-        <v>-0.03873143355661464</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03003792028115709</v>
+      </c>
+      <c r="E75">
+        <v>0.05797700883243734</v>
+      </c>
+      <c r="F75">
+        <v>-0.02264238665196526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08311109134337261</v>
+        <v>0.08898855295438124</v>
       </c>
       <c r="C77">
-        <v>-0.01630228326587763</v>
+        <v>-0.008125000837017698</v>
       </c>
       <c r="D77">
-        <v>-0.09515193880229211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.112766634718809</v>
+      </c>
+      <c r="E77">
+        <v>0.04174718555429004</v>
+      </c>
+      <c r="F77">
+        <v>-0.03462360701656841</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.104940873636206</v>
+        <v>0.1002233204252815</v>
       </c>
       <c r="C78">
-        <v>-0.04779182464283377</v>
+        <v>-0.03932079725491248</v>
       </c>
       <c r="D78">
-        <v>-0.1005156025327633</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1137430080547851</v>
+      </c>
+      <c r="E78">
+        <v>0.07357849791291789</v>
+      </c>
+      <c r="F78">
+        <v>-0.04954108768216557</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1651799660326963</v>
+        <v>0.1636568169446614</v>
       </c>
       <c r="C79">
-        <v>-0.02289308326000836</v>
+        <v>-0.02305612082935219</v>
       </c>
       <c r="D79">
-        <v>-0.01878953282736823</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01452887905999557</v>
+      </c>
+      <c r="E79">
+        <v>0.046341585608232</v>
+      </c>
+      <c r="F79">
+        <v>-0.01215698431851094</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08743941111257358</v>
+        <v>0.0819153978234216</v>
       </c>
       <c r="C80">
-        <v>-0.002101876307486965</v>
+        <v>0.001044618476603933</v>
       </c>
       <c r="D80">
-        <v>-0.04530592749872989</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05712181239987751</v>
+      </c>
+      <c r="E80">
+        <v>0.03595536378879201</v>
+      </c>
+      <c r="F80">
+        <v>0.0228508927579477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.119497684917891</v>
+        <v>0.1186419300913308</v>
       </c>
       <c r="C81">
-        <v>-0.03043319782104495</v>
+        <v>-0.03188449723099775</v>
       </c>
       <c r="D81">
-        <v>-0.04370368556026344</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0157373324183308</v>
+      </c>
+      <c r="E81">
+        <v>0.05772401821184554</v>
+      </c>
+      <c r="F81">
+        <v>-0.01920325351982428</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1651040061865755</v>
+        <v>0.1652948705070764</v>
       </c>
       <c r="C82">
-        <v>-0.02286682310115275</v>
+        <v>-0.02491741724804348</v>
       </c>
       <c r="D82">
-        <v>-0.02735403655095347</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004344848789518227</v>
+      </c>
+      <c r="E82">
+        <v>0.02680429060637376</v>
+      </c>
+      <c r="F82">
+        <v>-0.08279110251460359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06837230044650058</v>
+        <v>0.05861080216622691</v>
       </c>
       <c r="C83">
-        <v>-0.007001929080761054</v>
+        <v>-0.002771418237894183</v>
       </c>
       <c r="D83">
-        <v>-0.02443164055655124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05061426067058424</v>
+      </c>
+      <c r="E83">
+        <v>0.003102653478282865</v>
+      </c>
+      <c r="F83">
+        <v>0.02958132023720518</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0656097126094534</v>
+        <v>0.05987145423659843</v>
       </c>
       <c r="C84">
-        <v>-0.01530285644906231</v>
+        <v>-0.01136867566180882</v>
       </c>
       <c r="D84">
-        <v>-0.05612819646813891</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06298070009577215</v>
+      </c>
+      <c r="E84">
+        <v>0.007366093246815733</v>
+      </c>
+      <c r="F84">
+        <v>-0.004911865848711462</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1381456244863744</v>
+        <v>0.1356748276599935</v>
       </c>
       <c r="C85">
-        <v>-0.02767538929641135</v>
+        <v>-0.0283279808257327</v>
       </c>
       <c r="D85">
-        <v>-0.02382202464949862</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009036111474623468</v>
+      </c>
+      <c r="E85">
+        <v>0.03656428954348437</v>
+      </c>
+      <c r="F85">
+        <v>-0.0475754791206849</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1006835922445108</v>
+        <v>0.09421123413282656</v>
       </c>
       <c r="C86">
-        <v>0.0008031284115203133</v>
+        <v>0.005668334449752561</v>
       </c>
       <c r="D86">
-        <v>0.04052306188657898</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0426833599857416</v>
+      </c>
+      <c r="E86">
+        <v>0.2280294849054137</v>
+      </c>
+      <c r="F86">
+        <v>0.9041060777143801</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1013133217869251</v>
+        <v>0.09446212514046681</v>
       </c>
       <c r="C87">
-        <v>-0.02972437356817802</v>
+        <v>-0.0192417478050743</v>
       </c>
       <c r="D87">
-        <v>-0.05947781814916668</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09399177879370191</v>
+      </c>
+      <c r="E87">
+        <v>-0.05355811598069808</v>
+      </c>
+      <c r="F87">
+        <v>-0.04527211268333392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05972955615521633</v>
+        <v>0.06040635423243118</v>
       </c>
       <c r="C88">
-        <v>-0.006023947541794305</v>
+        <v>-0.00211849815142736</v>
       </c>
       <c r="D88">
-        <v>-0.04957901965662756</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04997541676781338</v>
+      </c>
+      <c r="E88">
+        <v>0.02455439289957268</v>
+      </c>
+      <c r="F88">
+        <v>-0.01436785727192812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.115460637668045</v>
+        <v>0.1288466888274925</v>
       </c>
       <c r="C89">
-        <v>0.001199576903292019</v>
+        <v>-0.01344856399304788</v>
       </c>
       <c r="D89">
-        <v>0.2755798228300983</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2458210888355672</v>
+      </c>
+      <c r="E89">
+        <v>-0.08977903201530256</v>
+      </c>
+      <c r="F89">
+        <v>0.009514932893936283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1306369137241956</v>
+        <v>0.1512600518033281</v>
       </c>
       <c r="C90">
-        <v>-0.01749907079300382</v>
+        <v>-0.03425357329293479</v>
       </c>
       <c r="D90">
-        <v>0.2881141588121383</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2709928235618726</v>
+      </c>
+      <c r="E90">
+        <v>-0.1141503168472678</v>
+      </c>
+      <c r="F90">
+        <v>0.008630801169702862</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.119654792787557</v>
+        <v>0.1214663296320546</v>
       </c>
       <c r="C91">
-        <v>-0.01755620480528107</v>
+        <v>-0.0200647425851624</v>
       </c>
       <c r="D91">
-        <v>-0.001727255826577218</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01573468268375602</v>
+      </c>
+      <c r="E91">
+        <v>0.0555606892355746</v>
+      </c>
+      <c r="F91">
+        <v>-0.0002837438717854164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1377089533097378</v>
+        <v>0.1476045414948413</v>
       </c>
       <c r="C92">
-        <v>-0.005955342233487725</v>
+        <v>-0.02482724047295895</v>
       </c>
       <c r="D92">
-        <v>0.3181712712413642</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2910310221214285</v>
+      </c>
+      <c r="E92">
+        <v>-0.1016870019750421</v>
+      </c>
+      <c r="F92">
+        <v>0.0137357612208353</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1346458426484068</v>
+        <v>0.1511589365440196</v>
       </c>
       <c r="C93">
-        <v>-0.01319661517635088</v>
+        <v>-0.02925934422860146</v>
       </c>
       <c r="D93">
-        <v>0.2823068346269896</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2679869692943627</v>
+      </c>
+      <c r="E93">
+        <v>-0.07857372629160497</v>
+      </c>
+      <c r="F93">
+        <v>-0.001701408574839524</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1350139490049407</v>
+        <v>0.1284099558307128</v>
       </c>
       <c r="C94">
-        <v>-0.02589301408675009</v>
+        <v>-0.02473618915210201</v>
       </c>
       <c r="D94">
-        <v>-0.05630524595356778</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04120169153512121</v>
+      </c>
+      <c r="E94">
+        <v>0.05763456103377728</v>
+      </c>
+      <c r="F94">
+        <v>-0.03653005698105188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1288729907656282</v>
+        <v>0.1268738341553041</v>
       </c>
       <c r="C95">
-        <v>-0.01137667142251371</v>
+        <v>-0.003302485695239215</v>
       </c>
       <c r="D95">
-        <v>-0.06692263209451102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09449949488425917</v>
+      </c>
+      <c r="E95">
+        <v>0.04992924922416772</v>
+      </c>
+      <c r="F95">
+        <v>0.008216844400308418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1124124686557287</v>
+        <v>0.10960623422295</v>
       </c>
       <c r="C96">
-        <v>0.9882980630396164</v>
+        <v>0.9870442944531055</v>
       </c>
       <c r="D96">
-        <v>-0.009394654138861799</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05163946382263957</v>
+      </c>
+      <c r="E96">
+        <v>0.05275108379915836</v>
+      </c>
+      <c r="F96">
+        <v>-0.04255349101447511</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.189087865350565</v>
+        <v>0.1905994325240501</v>
       </c>
       <c r="C97">
-        <v>0.006745098232331876</v>
+        <v>0.007007821544360106</v>
       </c>
       <c r="D97">
-        <v>0.03445926444960118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01896313424750436</v>
+      </c>
+      <c r="E97">
+        <v>0.02259427509097945</v>
+      </c>
+      <c r="F97">
+        <v>0.09399712798837416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1972827367087125</v>
+        <v>0.205880603442409</v>
       </c>
       <c r="C98">
-        <v>-0.01029065718949794</v>
+        <v>-0.007215602771924149</v>
       </c>
       <c r="D98">
-        <v>-0.005596853196482004</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0133311589950429</v>
+      </c>
+      <c r="E98">
+        <v>-0.07696571391828741</v>
+      </c>
+      <c r="F98">
+        <v>0.09062582134318742</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05656518204339282</v>
+        <v>0.05486948929283016</v>
       </c>
       <c r="C99">
-        <v>0.001819893332968265</v>
+        <v>0.004473844251203458</v>
       </c>
       <c r="D99">
-        <v>-0.02166167270467193</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03921646661717199</v>
+      </c>
+      <c r="E99">
+        <v>0.02189790223799628</v>
+      </c>
+      <c r="F99">
+        <v>-0.003396534354548449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1352409486439107</v>
+        <v>0.1284038178973851</v>
       </c>
       <c r="C100">
-        <v>0.02877420133277777</v>
+        <v>0.05325839026556493</v>
       </c>
       <c r="D100">
-        <v>-0.3545059148771227</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3465656692023441</v>
+      </c>
+      <c r="E100">
+        <v>-0.8858830701118389</v>
+      </c>
+      <c r="F100">
+        <v>0.156868267687159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02674130456458809</v>
+        <v>0.02860396308344869</v>
       </c>
       <c r="C101">
-        <v>-0.009950218139018207</v>
+        <v>-0.008717702585143598</v>
       </c>
       <c r="D101">
-        <v>-0.01986788610099459</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03093443217582012</v>
+      </c>
+      <c r="E101">
+        <v>0.01291911543622282</v>
+      </c>
+      <c r="F101">
+        <v>0.01412062046729339</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
